--- a/data/case1/2/V1_14.xlsx
+++ b/data/case1/2/V1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999501561865</v>
+        <v>0.99999999361158021</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99702689655822541</v>
+        <v>0.99797072345550553</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99298837347204727</v>
+        <v>0.99330776872850968</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99588444757567174</v>
+        <v>0.99659562760113241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98563120382703873</v>
+        <v>0.98674669336091059</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.96127140473485806</v>
+        <v>0.96374123627344188</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.95772703989438934</v>
+        <v>0.96508416963765664</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.95342262327226635</v>
+        <v>0.96561983692837949</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.95033117409886803</v>
+        <v>0.96241650340408358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.94816795780628915</v>
+        <v>0.96014245088277539</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.94788059665868696</v>
+        <v>0.95986021509951258</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.94510130042662577</v>
+        <v>0.95957931299260968</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.93381599133833304</v>
+        <v>0.96066160114794941</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.9296489959672396</v>
+        <v>0.96215231033011883</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.92705767818568907</v>
+        <v>0.96475329535882726</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.92455130600224922</v>
+        <v>0.96834341745612973</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.92084348573385011</v>
+        <v>0.96463593087383337</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.91973457086768962</v>
+        <v>0.96352704148823265</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99222477702642264</v>
+        <v>0.99691751902046999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.96405586511102204</v>
+        <v>0.98980055316335513</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.95601436037265275</v>
+        <v>0.98840207433825755</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.94235319900480286</v>
+        <v>0.9871375751627256</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98595414466305042</v>
+        <v>0.98491469600069448</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97293385200605687</v>
+        <v>0.96883989120913805</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96647695019998392</v>
+        <v>0.95939419948421945</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.95853079577398237</v>
+        <v>0.96008812432044666</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9549587340087029</v>
+        <v>0.9552445854616094</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.93970752283538395</v>
+        <v>0.93378164092238047</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.92904335372870261</v>
+        <v>0.91851391824175976</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.92247399607516911</v>
+        <v>0.91194427691334901</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.91482093325937064</v>
+        <v>0.90429107819952403</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9131416264207145</v>
+        <v>0.90261178773893525</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.91262161776081996</v>
+        <v>0.90209178626789199</v>
       </c>
     </row>
   </sheetData>
